--- a/Hb work.xlsx
+++ b/Hb work.xlsx
@@ -2,21 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\std1\Desktop\ACCP AI HB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\accp ai Hb\AI-202505B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DB32AA-D199-4B22-AD04-468B94351EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FE87A8-DC76-422E-B6CA-951532396B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{90FBCDED-DAB4-4B59-85FE-98157516E80E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="3" xr2:uid="{90FBCDED-DAB4-4B59-85FE-98157516E80E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="13" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="94">
   <si>
     <t>ID</t>
   </si>
@@ -183,6 +188,141 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>P.Name</t>
+  </si>
+  <si>
+    <t>P.type</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>RC Cars</t>
+  </si>
+  <si>
+    <t>Nails</t>
+  </si>
+  <si>
+    <t>Scales</t>
+  </si>
+  <si>
+    <t>Brushes</t>
+  </si>
+  <si>
+    <t>Shirts</t>
+  </si>
+  <si>
+    <t>trousers</t>
+  </si>
+  <si>
+    <t>Chips</t>
+  </si>
+  <si>
+    <t>Biscuits</t>
+  </si>
+  <si>
+    <t>Drinks</t>
+  </si>
+  <si>
+    <t>cable</t>
+  </si>
+  <si>
+    <t>Pc</t>
+  </si>
+  <si>
+    <t>Phones</t>
+  </si>
+  <si>
+    <t>Air pods</t>
+  </si>
+  <si>
+    <t>Toys</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Fashion</t>
+  </si>
+  <si>
+    <t>Apparel</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Foods</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Schhol item</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>stock avilable</t>
+  </si>
+  <si>
+    <t>total  sale</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of price</t>
+  </si>
+  <si>
+    <t>Sum of total  sale</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Karachi</t>
+  </si>
+  <si>
+    <t>Islamabad</t>
+  </si>
+  <si>
+    <t>islamabad</t>
+  </si>
+  <si>
+    <t>multan</t>
+  </si>
+  <si>
+    <t>Peshawar</t>
+  </si>
+  <si>
+    <t>Quetta</t>
+  </si>
+  <si>
+    <t>Lahore</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>Feburary</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>Sum of stock avilable</t>
+  </si>
+  <si>
+    <t>Count of City</t>
   </si>
 </sst>
 </file>
@@ -250,16 +390,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -310,6 +465,12 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -326,6 +487,558 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="admin" refreshedDate="45821.94729837963" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="15" xr:uid="{0C4BB2C6-B489-4980-A10E-E96F551F7DD2}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table2"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="P.Name" numFmtId="0">
+      <sharedItems count="15">
+        <s v="RC Cars"/>
+        <s v="Pens"/>
+        <s v="Nails"/>
+        <s v="Scales"/>
+        <s v="Brushes"/>
+        <s v="Shirts"/>
+        <s v="trousers"/>
+        <s v="Chips"/>
+        <s v="Biscuits"/>
+        <s v="Drinks"/>
+        <s v="cable"/>
+        <s v="Pc"/>
+        <s v="Phones"/>
+        <s v="Air pods"/>
+        <s v="Bags"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="P.type" numFmtId="0">
+      <sharedItems count="8">
+        <s v="Toys"/>
+        <s v="Stationery"/>
+        <s v="Fashion"/>
+        <s v="Apparel"/>
+        <s v="Food"/>
+        <s v="Foods"/>
+        <s v="Electronics"/>
+        <s v="Schhol item"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15" maxValue="120000"/>
+    </cacheField>
+    <cacheField name="stock avilable" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="120"/>
+    </cacheField>
+    <cacheField name="total  sale" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="900"/>
+    </cacheField>
+    <cacheField name="Revenue" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1200" maxValue="3000000" count="15">
+        <n v="1680000"/>
+        <n v="18000"/>
+        <n v="15000"/>
+        <n v="1200"/>
+        <n v="4900"/>
+        <n v="52000"/>
+        <n v="148500"/>
+        <n v="4500"/>
+        <n v="1580"/>
+        <n v="33000"/>
+        <n v="35000"/>
+        <n v="700000"/>
+        <n v="3000000"/>
+        <n v="200000"/>
+        <n v="150000"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="City" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Month" numFmtId="3">
+      <sharedItems count="3">
+        <s v="January"/>
+        <s v="Feburary"/>
+        <s v="March"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="15">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12000"/>
+    <n v="40"/>
+    <n v="140"/>
+    <x v="0"/>
+    <s v="Karachi"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="20"/>
+    <n v="100"/>
+    <n v="900"/>
+    <x v="1"/>
+    <s v="Islamabad"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="300"/>
+    <n v="30"/>
+    <n v="50"/>
+    <x v="2"/>
+    <s v="Karachi"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="120"/>
+    <n v="80"/>
+    <x v="3"/>
+    <s v="Islamabad"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="70"/>
+    <n v="30"/>
+    <n v="70"/>
+    <x v="4"/>
+    <s v="multan"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="800"/>
+    <n v="22"/>
+    <n v="65"/>
+    <x v="5"/>
+    <s v="Peshawar"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="1500"/>
+    <n v="58"/>
+    <n v="99"/>
+    <x v="6"/>
+    <s v="Karachi"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="50"/>
+    <n v="80"/>
+    <n v="90"/>
+    <x v="7"/>
+    <s v="Islamabad"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="20"/>
+    <n v="90"/>
+    <n v="79"/>
+    <x v="8"/>
+    <s v="Quetta"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="5"/>
+    <n v="100"/>
+    <n v="60"/>
+    <n v="330"/>
+    <x v="9"/>
+    <s v="Lahore"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="6"/>
+    <n v="500"/>
+    <n v="20"/>
+    <n v="70"/>
+    <x v="10"/>
+    <s v="Karachi"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="6"/>
+    <n v="70000"/>
+    <n v="10"/>
+    <n v="10"/>
+    <x v="11"/>
+    <s v="Karachi"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="6"/>
+    <n v="120000"/>
+    <n v="50"/>
+    <n v="25"/>
+    <x v="12"/>
+    <s v="Lahore"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="6"/>
+    <n v="2500"/>
+    <n v="25"/>
+    <n v="80"/>
+    <x v="13"/>
+    <s v="Karachi"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="7"/>
+    <n v="3000"/>
+    <n v="33"/>
+    <n v="50"/>
+    <x v="14"/>
+    <s v="Islamabad"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F3D09FA2-6F8D-4D83-BFF1-6DE485E6B1FB}" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G25:K86" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="16">
+        <item x="13"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="16">
+        <item x="3"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="4">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="5"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="61">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="11"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="14"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="13"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Sum of price" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of stock avilable" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of total  sale" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Count of City" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1FCA7987-7D82-4D2C-8172-BE11F512D7FE}" name="Table2" displayName="Table2" ref="G7:N22" totalsRowShown="0">
+  <autoFilter ref="G7:N22" xr:uid="{1FCA7987-7D82-4D2C-8172-BE11F512D7FE}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{0E14FA9A-AE12-49D1-803B-5D5F21536A1A}" name="P.Name"/>
+    <tableColumn id="2" xr3:uid="{99F6FACD-ACF1-4283-95D1-134BBAD82A9B}" name="P.type"/>
+    <tableColumn id="3" xr3:uid="{8D32C046-80BF-492A-AB02-76CFD4CE85BB}" name="price"/>
+    <tableColumn id="4" xr3:uid="{AC9847C0-9E56-4357-8463-48708CEDC491}" name="stock avilable"/>
+    <tableColumn id="6" xr3:uid="{A0A4CE49-6DDC-44D0-AB7C-4E34C2D37234}" name="total  sale"/>
+    <tableColumn id="5" xr3:uid="{7681D543-D8BC-4810-9D02-3811216C0688}" name="Revenue"/>
+    <tableColumn id="8" xr3:uid="{C2BEB654-0DAD-447D-AEF5-7890E5102F7C}" name="City" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{BF24D531-8963-4243-B0A9-23ED36BF4DD3}" name="Month" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -628,7 +1341,7 @@
   <dimension ref="G6:V16"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870D7C21-530A-4F5B-A5EB-34FA6EB719F9}">
   <dimension ref="I6:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,4 +2126,1518 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE74159-A186-46D8-92E4-CBB96D3700B7}">
+  <dimension ref="G7:N86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8">
+        <v>12000</v>
+      </c>
+      <c r="J8">
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <v>140</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1680000</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>900</v>
+      </c>
+      <c r="L9" s="4">
+        <v>18000</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10">
+        <v>300</v>
+      </c>
+      <c r="J10">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <v>50</v>
+      </c>
+      <c r="L10" s="4">
+        <v>15000</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>120</v>
+      </c>
+      <c r="K11">
+        <v>80</v>
+      </c>
+      <c r="L11">
+        <v>1200</v>
+      </c>
+      <c r="M11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12">
+        <v>70</v>
+      </c>
+      <c r="J12">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>70</v>
+      </c>
+      <c r="L12">
+        <v>4900</v>
+      </c>
+      <c r="M12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13">
+        <v>800</v>
+      </c>
+      <c r="J13">
+        <v>22</v>
+      </c>
+      <c r="K13">
+        <v>65</v>
+      </c>
+      <c r="L13" s="4">
+        <v>52000</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14">
+        <v>1500</v>
+      </c>
+      <c r="J14">
+        <v>58</v>
+      </c>
+      <c r="K14">
+        <v>99</v>
+      </c>
+      <c r="L14" s="4">
+        <v>148500</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>80</v>
+      </c>
+      <c r="K15">
+        <v>90</v>
+      </c>
+      <c r="L15">
+        <v>4500</v>
+      </c>
+      <c r="M15" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>90</v>
+      </c>
+      <c r="K16">
+        <v>79</v>
+      </c>
+      <c r="L16">
+        <v>1580</v>
+      </c>
+      <c r="M16" t="s">
+        <v>87</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <v>60</v>
+      </c>
+      <c r="K17">
+        <v>330</v>
+      </c>
+      <c r="L17" s="4">
+        <v>33000</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18">
+        <v>500</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>70</v>
+      </c>
+      <c r="L18" s="4">
+        <v>35000</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="4">
+        <v>70000</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19" s="4">
+        <v>700000</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="4">
+        <v>120000</v>
+      </c>
+      <c r="J20">
+        <v>50</v>
+      </c>
+      <c r="K20">
+        <v>25</v>
+      </c>
+      <c r="L20" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21">
+        <v>2500</v>
+      </c>
+      <c r="J21">
+        <v>25</v>
+      </c>
+      <c r="K21">
+        <v>80</v>
+      </c>
+      <c r="L21" s="4">
+        <v>200000</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22">
+        <v>3000</v>
+      </c>
+      <c r="J22">
+        <v>33</v>
+      </c>
+      <c r="K22">
+        <v>50</v>
+      </c>
+      <c r="L22" s="4">
+        <v>150000</v>
+      </c>
+      <c r="M22" t="s">
+        <v>83</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I26" s="8">
+        <v>25</v>
+      </c>
+      <c r="J26" s="8">
+        <v>80</v>
+      </c>
+      <c r="K26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I27" s="8">
+        <v>25</v>
+      </c>
+      <c r="J27" s="8">
+        <v>80</v>
+      </c>
+      <c r="K27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G28" s="9">
+        <v>200000</v>
+      </c>
+      <c r="H28" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I28" s="8">
+        <v>25</v>
+      </c>
+      <c r="J28" s="8">
+        <v>80</v>
+      </c>
+      <c r="K28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G29" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I29" s="8">
+        <v>25</v>
+      </c>
+      <c r="J29" s="8">
+        <v>80</v>
+      </c>
+      <c r="K29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I30" s="8">
+        <v>33</v>
+      </c>
+      <c r="J30" s="8">
+        <v>50</v>
+      </c>
+      <c r="K30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I31" s="8">
+        <v>33</v>
+      </c>
+      <c r="J31" s="8">
+        <v>50</v>
+      </c>
+      <c r="K31" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G32" s="9">
+        <v>150000</v>
+      </c>
+      <c r="H32" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I32" s="8">
+        <v>33</v>
+      </c>
+      <c r="J32" s="8">
+        <v>50</v>
+      </c>
+      <c r="K32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I33" s="8">
+        <v>33</v>
+      </c>
+      <c r="J33" s="8">
+        <v>50</v>
+      </c>
+      <c r="K33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="8">
+        <v>20</v>
+      </c>
+      <c r="I34" s="8">
+        <v>90</v>
+      </c>
+      <c r="J34" s="8">
+        <v>79</v>
+      </c>
+      <c r="K34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="8">
+        <v>20</v>
+      </c>
+      <c r="I35" s="8">
+        <v>90</v>
+      </c>
+      <c r="J35" s="8">
+        <v>79</v>
+      </c>
+      <c r="K35" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G36" s="9">
+        <v>1580</v>
+      </c>
+      <c r="H36" s="8">
+        <v>20</v>
+      </c>
+      <c r="I36" s="8">
+        <v>90</v>
+      </c>
+      <c r="J36" s="8">
+        <v>79</v>
+      </c>
+      <c r="K36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G37" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="8">
+        <v>20</v>
+      </c>
+      <c r="I37" s="8">
+        <v>90</v>
+      </c>
+      <c r="J37" s="8">
+        <v>79</v>
+      </c>
+      <c r="K37" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G38" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="8">
+        <v>70</v>
+      </c>
+      <c r="I38" s="8">
+        <v>30</v>
+      </c>
+      <c r="J38" s="8">
+        <v>70</v>
+      </c>
+      <c r="K38" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="8">
+        <v>70</v>
+      </c>
+      <c r="I39" s="8">
+        <v>30</v>
+      </c>
+      <c r="J39" s="8">
+        <v>70</v>
+      </c>
+      <c r="K39" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G40" s="9">
+        <v>4900</v>
+      </c>
+      <c r="H40" s="8">
+        <v>70</v>
+      </c>
+      <c r="I40" s="8">
+        <v>30</v>
+      </c>
+      <c r="J40" s="8">
+        <v>70</v>
+      </c>
+      <c r="K40" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G41" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="8">
+        <v>70</v>
+      </c>
+      <c r="I41" s="8">
+        <v>30</v>
+      </c>
+      <c r="J41" s="8">
+        <v>70</v>
+      </c>
+      <c r="K41" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G42" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" s="8">
+        <v>500</v>
+      </c>
+      <c r="I42" s="8">
+        <v>20</v>
+      </c>
+      <c r="J42" s="8">
+        <v>70</v>
+      </c>
+      <c r="K42" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G43" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" s="8">
+        <v>500</v>
+      </c>
+      <c r="I43" s="8">
+        <v>20</v>
+      </c>
+      <c r="J43" s="8">
+        <v>70</v>
+      </c>
+      <c r="K43" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G44" s="9">
+        <v>35000</v>
+      </c>
+      <c r="H44" s="8">
+        <v>500</v>
+      </c>
+      <c r="I44" s="8">
+        <v>20</v>
+      </c>
+      <c r="J44" s="8">
+        <v>70</v>
+      </c>
+      <c r="K44" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G45" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H45" s="8">
+        <v>500</v>
+      </c>
+      <c r="I45" s="8">
+        <v>20</v>
+      </c>
+      <c r="J45" s="8">
+        <v>70</v>
+      </c>
+      <c r="K45" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46" s="8">
+        <v>50</v>
+      </c>
+      <c r="I46" s="8">
+        <v>80</v>
+      </c>
+      <c r="J46" s="8">
+        <v>90</v>
+      </c>
+      <c r="K46" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G47" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" s="8">
+        <v>50</v>
+      </c>
+      <c r="I47" s="8">
+        <v>80</v>
+      </c>
+      <c r="J47" s="8">
+        <v>90</v>
+      </c>
+      <c r="K47" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G48" s="9">
+        <v>4500</v>
+      </c>
+      <c r="H48" s="8">
+        <v>50</v>
+      </c>
+      <c r="I48" s="8">
+        <v>80</v>
+      </c>
+      <c r="J48" s="8">
+        <v>90</v>
+      </c>
+      <c r="K48" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G49" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H49" s="8">
+        <v>50</v>
+      </c>
+      <c r="I49" s="8">
+        <v>80</v>
+      </c>
+      <c r="J49" s="8">
+        <v>90</v>
+      </c>
+      <c r="K49" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G50" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" s="8">
+        <v>100</v>
+      </c>
+      <c r="I50" s="8">
+        <v>60</v>
+      </c>
+      <c r="J50" s="8">
+        <v>330</v>
+      </c>
+      <c r="K50" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G51" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="8">
+        <v>100</v>
+      </c>
+      <c r="I51" s="8">
+        <v>60</v>
+      </c>
+      <c r="J51" s="8">
+        <v>330</v>
+      </c>
+      <c r="K51" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G52" s="9">
+        <v>33000</v>
+      </c>
+      <c r="H52" s="8">
+        <v>100</v>
+      </c>
+      <c r="I52" s="8">
+        <v>60</v>
+      </c>
+      <c r="J52" s="8">
+        <v>330</v>
+      </c>
+      <c r="K52" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G53" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H53" s="8">
+        <v>100</v>
+      </c>
+      <c r="I53" s="8">
+        <v>60</v>
+      </c>
+      <c r="J53" s="8">
+        <v>330</v>
+      </c>
+      <c r="K53" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G54" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54" s="8">
+        <v>300</v>
+      </c>
+      <c r="I54" s="8">
+        <v>30</v>
+      </c>
+      <c r="J54" s="8">
+        <v>50</v>
+      </c>
+      <c r="K54" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G55" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H55" s="8">
+        <v>300</v>
+      </c>
+      <c r="I55" s="8">
+        <v>30</v>
+      </c>
+      <c r="J55" s="8">
+        <v>50</v>
+      </c>
+      <c r="K55" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G56" s="9">
+        <v>15000</v>
+      </c>
+      <c r="H56" s="8">
+        <v>300</v>
+      </c>
+      <c r="I56" s="8">
+        <v>30</v>
+      </c>
+      <c r="J56" s="8">
+        <v>50</v>
+      </c>
+      <c r="K56" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G57" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" s="8">
+        <v>300</v>
+      </c>
+      <c r="I57" s="8">
+        <v>30</v>
+      </c>
+      <c r="J57" s="8">
+        <v>50</v>
+      </c>
+      <c r="K57" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G58" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" s="8">
+        <v>70000</v>
+      </c>
+      <c r="I58" s="8">
+        <v>10</v>
+      </c>
+      <c r="J58" s="8">
+        <v>10</v>
+      </c>
+      <c r="K58" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G59" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H59" s="8">
+        <v>70000</v>
+      </c>
+      <c r="I59" s="8">
+        <v>10</v>
+      </c>
+      <c r="J59" s="8">
+        <v>10</v>
+      </c>
+      <c r="K59" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G60" s="9">
+        <v>700000</v>
+      </c>
+      <c r="H60" s="8">
+        <v>70000</v>
+      </c>
+      <c r="I60" s="8">
+        <v>10</v>
+      </c>
+      <c r="J60" s="8">
+        <v>10</v>
+      </c>
+      <c r="K60" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G61" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H61" s="8">
+        <v>70000</v>
+      </c>
+      <c r="I61" s="8">
+        <v>10</v>
+      </c>
+      <c r="J61" s="8">
+        <v>10</v>
+      </c>
+      <c r="K61" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G62" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" s="8">
+        <v>20</v>
+      </c>
+      <c r="I62" s="8">
+        <v>100</v>
+      </c>
+      <c r="J62" s="8">
+        <v>900</v>
+      </c>
+      <c r="K62" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G63" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H63" s="8">
+        <v>20</v>
+      </c>
+      <c r="I63" s="8">
+        <v>100</v>
+      </c>
+      <c r="J63" s="8">
+        <v>900</v>
+      </c>
+      <c r="K63" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G64" s="9">
+        <v>18000</v>
+      </c>
+      <c r="H64" s="8">
+        <v>20</v>
+      </c>
+      <c r="I64" s="8">
+        <v>100</v>
+      </c>
+      <c r="J64" s="8">
+        <v>900</v>
+      </c>
+      <c r="K64" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G65" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H65" s="8">
+        <v>20</v>
+      </c>
+      <c r="I65" s="8">
+        <v>100</v>
+      </c>
+      <c r="J65" s="8">
+        <v>900</v>
+      </c>
+      <c r="K65" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G66" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H66" s="8">
+        <v>120000</v>
+      </c>
+      <c r="I66" s="8">
+        <v>50</v>
+      </c>
+      <c r="J66" s="8">
+        <v>25</v>
+      </c>
+      <c r="K66" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G67" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H67" s="8">
+        <v>120000</v>
+      </c>
+      <c r="I67" s="8">
+        <v>50</v>
+      </c>
+      <c r="J67" s="8">
+        <v>25</v>
+      </c>
+      <c r="K67" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G68" s="9">
+        <v>3000000</v>
+      </c>
+      <c r="H68" s="8">
+        <v>120000</v>
+      </c>
+      <c r="I68" s="8">
+        <v>50</v>
+      </c>
+      <c r="J68" s="8">
+        <v>25</v>
+      </c>
+      <c r="K68" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G69" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H69" s="8">
+        <v>120000</v>
+      </c>
+      <c r="I69" s="8">
+        <v>50</v>
+      </c>
+      <c r="J69" s="8">
+        <v>25</v>
+      </c>
+      <c r="K69" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G70" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H70" s="8">
+        <v>12000</v>
+      </c>
+      <c r="I70" s="8">
+        <v>40</v>
+      </c>
+      <c r="J70" s="8">
+        <v>140</v>
+      </c>
+      <c r="K70" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G71" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H71" s="8">
+        <v>12000</v>
+      </c>
+      <c r="I71" s="8">
+        <v>40</v>
+      </c>
+      <c r="J71" s="8">
+        <v>140</v>
+      </c>
+      <c r="K71" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G72" s="9">
+        <v>1680000</v>
+      </c>
+      <c r="H72" s="8">
+        <v>12000</v>
+      </c>
+      <c r="I72" s="8">
+        <v>40</v>
+      </c>
+      <c r="J72" s="8">
+        <v>140</v>
+      </c>
+      <c r="K72" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G73" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H73" s="8">
+        <v>12000</v>
+      </c>
+      <c r="I73" s="8">
+        <v>40</v>
+      </c>
+      <c r="J73" s="8">
+        <v>140</v>
+      </c>
+      <c r="K73" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G74" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H74" s="8">
+        <v>15</v>
+      </c>
+      <c r="I74" s="8">
+        <v>120</v>
+      </c>
+      <c r="J74" s="8">
+        <v>80</v>
+      </c>
+      <c r="K74" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G75" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H75" s="8">
+        <v>15</v>
+      </c>
+      <c r="I75" s="8">
+        <v>120</v>
+      </c>
+      <c r="J75" s="8">
+        <v>80</v>
+      </c>
+      <c r="K75" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G76" s="9">
+        <v>1200</v>
+      </c>
+      <c r="H76" s="8">
+        <v>15</v>
+      </c>
+      <c r="I76" s="8">
+        <v>120</v>
+      </c>
+      <c r="J76" s="8">
+        <v>80</v>
+      </c>
+      <c r="K76" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G77" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H77" s="8">
+        <v>15</v>
+      </c>
+      <c r="I77" s="8">
+        <v>120</v>
+      </c>
+      <c r="J77" s="8">
+        <v>80</v>
+      </c>
+      <c r="K77" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G78" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H78" s="8">
+        <v>800</v>
+      </c>
+      <c r="I78" s="8">
+        <v>22</v>
+      </c>
+      <c r="J78" s="8">
+        <v>65</v>
+      </c>
+      <c r="K78" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G79" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H79" s="8">
+        <v>800</v>
+      </c>
+      <c r="I79" s="8">
+        <v>22</v>
+      </c>
+      <c r="J79" s="8">
+        <v>65</v>
+      </c>
+      <c r="K79" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G80" s="9">
+        <v>52000</v>
+      </c>
+      <c r="H80" s="8">
+        <v>800</v>
+      </c>
+      <c r="I80" s="8">
+        <v>22</v>
+      </c>
+      <c r="J80" s="8">
+        <v>65</v>
+      </c>
+      <c r="K80" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G81" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H81" s="8">
+        <v>800</v>
+      </c>
+      <c r="I81" s="8">
+        <v>22</v>
+      </c>
+      <c r="J81" s="8">
+        <v>65</v>
+      </c>
+      <c r="K81" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G82" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" s="8">
+        <v>1500</v>
+      </c>
+      <c r="I82" s="8">
+        <v>58</v>
+      </c>
+      <c r="J82" s="8">
+        <v>99</v>
+      </c>
+      <c r="K82" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G83" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H83" s="8">
+        <v>1500</v>
+      </c>
+      <c r="I83" s="8">
+        <v>58</v>
+      </c>
+      <c r="J83" s="8">
+        <v>99</v>
+      </c>
+      <c r="K83" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G84" s="9">
+        <v>148500</v>
+      </c>
+      <c r="H84" s="8">
+        <v>1500</v>
+      </c>
+      <c r="I84" s="8">
+        <v>58</v>
+      </c>
+      <c r="J84" s="8">
+        <v>99</v>
+      </c>
+      <c r="K84" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G85" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H85" s="8">
+        <v>1500</v>
+      </c>
+      <c r="I85" s="8">
+        <v>58</v>
+      </c>
+      <c r="J85" s="8">
+        <v>99</v>
+      </c>
+      <c r="K85" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G86" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H86" s="8">
+        <v>210875</v>
+      </c>
+      <c r="I86" s="8">
+        <v>768</v>
+      </c>
+      <c r="J86" s="8">
+        <v>2138</v>
+      </c>
+      <c r="K86" s="8">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A94A7F5-5B3C-4931-8D26-0D7C35845382}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>